--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value726.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value726.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.181791984085029</v>
+        <v>1.127006530761719</v>
       </c>
       <c r="B1">
-        <v>1.800061546906728</v>
+        <v>1.826100707054138</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.837193592805324</v>
+        <v>2.335582733154297</v>
       </c>
       <c r="E1">
-        <v>1.039787754289012</v>
+        <v>1.128461003303528</v>
       </c>
     </row>
   </sheetData>
